--- a/Team-Data/2020-21/1-7-2020-21.xlsx
+++ b/Team-Data/2020-21/1-7-2020-21.xlsx
@@ -2130,7 +2130,7 @@
         <v>15</v>
       </c>
       <c r="AS9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT9" t="n">
         <v>25</v>
@@ -2234,16 +2234,16 @@
         <v>11.4</v>
       </c>
       <c r="S10" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="T10" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U10" t="n">
         <v>24</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="W10" t="n">
         <v>7.6</v>
@@ -2321,7 +2321,7 @@
         <v>18</v>
       </c>
       <c r="AV10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW10" t="n">
         <v>16</v>
@@ -5227,7 +5227,7 @@
         <v>14</v>
       </c>
       <c r="AT26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU26" t="n">
         <v>26</v>
